--- a/output/table3/Table3_Pre-ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_Pre-ZLB_intraday_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>814.973996050033</v>
+        <v>1049.212278876171</v>
       </c>
       <c r="E26" t="n">
-        <v>1404.794123646466</v>
+        <v>1716.262336640367</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>418.3870967741935</v>
       </c>
       <c r="H26" t="n">
-        <v>977.6532258064516</v>
+        <v>1415.435483870968</v>
       </c>
       <c r="I26" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="J26" t="n">
-        <v>1640.737704918033</v>
+        <v>2112.168164992067</v>
       </c>
       <c r="K26" t="n">
-        <v>2239.952295134037</v>
+        <v>2565.548802598415</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1281.540983606557</v>
       </c>
       <c r="N26" t="n">
-        <v>2776.799180327869</v>
+        <v>3660.180327868853</v>
       </c>
       <c r="O26" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P26" t="n">
-        <v>1712.796593017373</v>
+        <v>2110.216475606505</v>
       </c>
       <c r="Q26" t="n">
-        <v>2281.167677996288</v>
+        <v>2536.46481911985</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1537.677685950413</v>
       </c>
       <c r="T26" t="n">
-        <v>2834.584710743802</v>
+        <v>3574.628099173554</v>
       </c>
       <c r="U26" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="V26" t="n">
-        <v>1491.262390670554</v>
+        <v>1826.636559139785</v>
       </c>
       <c r="W26" t="n">
-        <v>1992.234939866761</v>
+        <v>2249.948061240582</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1325.104761904762</v>
       </c>
       <c r="Z26" t="n">
-        <v>2423.915476190477</v>
+        <v>2852.72380952381</v>
       </c>
       <c r="AA26" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="AB26" t="n">
-        <v>395.6490337043908</v>
+        <v>470.1374877810363</v>
       </c>
       <c r="AC26" t="n">
-        <v>599.9029474707107</v>
+        <v>668.4111943299948</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>313.1575757575758</v>
       </c>
       <c r="AF26" t="n">
-        <v>545.3551136363636</v>
+        <v>656.1704545454545</v>
       </c>
       <c r="AG26" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-286.1162771560237</v>
+        <v>-200.323361082206</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>526.2334113973459</v>
+        <v>860.9198836594395</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>601.3058413448024</v>
+        <v>873.4358837643297</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>360.2883908325234</v>
+        <v>558.1278417818741</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>80.53267437083343</v>
+        <v>44.85631720430109</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>

--- a/output/table3/Table3_Pre-ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_Pre-ZLB_intraday_volume.xlsx
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>44.85631720430109</v>
+        <v>129.9125513196481</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>

--- a/output/table3/Table3_Pre-ZLB_intraday_volume.xlsx
+++ b/output/table3/Table3_Pre-ZLB_intraday_volume.xlsx
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1049.212278876171</v>
+        <v>979.0687912942092</v>
       </c>
       <c r="E26" t="n">
-        <v>1716.262336640367</v>
+        <v>1215.102254259562</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>418.3870967741935</v>
+        <v>383.1935483870968</v>
       </c>
       <c r="H26" t="n">
-        <v>1415.435483870968</v>
+        <v>1558.758064516129</v>
       </c>
       <c r="I26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="J26" t="n">
-        <v>2112.168164992067</v>
+        <v>1015.054908157219</v>
       </c>
       <c r="K26" t="n">
-        <v>2565.548802598415</v>
+        <v>1239.202589920044</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1281.540983606557</v>
+        <v>374.5245901639344</v>
       </c>
       <c r="N26" t="n">
-        <v>3660.180327868853</v>
+        <v>1716.680327868853</v>
       </c>
       <c r="O26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="P26" t="n">
-        <v>2110.216475606505</v>
+        <v>1048.295827939859</v>
       </c>
       <c r="Q26" t="n">
-        <v>2536.46481911985</v>
+        <v>1285.482856390187</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1537.677685950413</v>
+        <v>495.8677685950413</v>
       </c>
       <c r="T26" t="n">
-        <v>3574.628099173554</v>
+        <v>1909.747933884298</v>
       </c>
       <c r="U26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="V26" t="n">
-        <v>1826.636559139785</v>
+        <v>1027.007458405049</v>
       </c>
       <c r="W26" t="n">
-        <v>2249.948061240582</v>
+        <v>1242.337598335062</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1325.104761904762</v>
+        <v>522.8285714285714</v>
       </c>
       <c r="Z26" t="n">
-        <v>2852.72380952381</v>
+        <v>1746.183333333333</v>
       </c>
       <c r="AA26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="AB26" t="n">
-        <v>470.1374877810363</v>
+        <v>350.7499361080687</v>
       </c>
       <c r="AC26" t="n">
-        <v>668.4111943299948</v>
+        <v>427.1553011947677</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>313.1575757575758</v>
+        <v>289.7075757575757</v>
       </c>
       <c r="AF26" t="n">
-        <v>656.1704545454545</v>
+        <v>577.1359848484849</v>
       </c>
       <c r="AG26" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-200.323361082206</v>
+        <v>-10.68703847648657</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>860.9198836594395</v>
+        <v>40.69825202449143</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
-        <v>873.4358837643297</v>
+        <v>89.22846758936568</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2516,7 +2516,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>558.1278417818741</v>
+        <v>71.2245553643144</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -2524,7 +2524,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>129.9125513196481</v>
+        <v>40.39626004016065</v>
       </c>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -2557,7 +2557,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2565,7 +2565,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2573,7 +2573,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
